--- a/biology/Histoire de la zoologie et de la botanique/Liste_de_musées_d'histoire_naturelle/Liste_de_musées_d'histoire_naturelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_de_musées_d'histoire_naturelle/Liste_de_musées_d'histoire_naturelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_d%27histoire_naturelle</t>
+          <t>Liste_de_musées_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste de musées d'histoire naturelle mentionne d'abord les musées d'histoire naturelle de rang national, comme le Musée national d'histoire naturelle des États-Unis ou le Muséum des sciences naturelles de Belgique. Viennent ensuite, sur une deuxième liste non exhaustive, tous les autres musées d'histoire naturelle, comme le Musée américain d'histoire naturelle (aussi aux États-Unis, mais pas le musée national) ou le Musée d'histoire naturelle de Tournai (aussi en Belgique, mais pas le musée national).
-Certains des musées de ces deux listes portent le nom de « muséum ». Cette appellation est propre à certains pays francophones et fut utilisée pour la première fois en 1793 par le premier d'entre eux, le Muséum national d'histoire naturelle, situé à Paris, en France[1]. Depuis, en langue française, le terme « muséum » est devenu synonyme de « musée d'histoire naturelle »[note 1].
+Certains des musées de ces deux listes portent le nom de « muséum ». Cette appellation est propre à certains pays francophones et fut utilisée pour la première fois en 1793 par le premier d'entre eux, le Muséum national d'histoire naturelle, situé à Paris, en France. Depuis, en langue française, le terme « muséum » est devenu synonyme de « musée d'histoire naturelle »[note 1].
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_mus%C3%A9es_d%27histoire_naturelle</t>
+          <t>Liste_de_musées_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,44 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Musées nationaux d'histoire naturelle</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Afrique
-Asie
-Amériques
-Europe
-Océanie</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_mus%C3%A9es_d%27histoire_naturelle</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_mus%C3%A9es_d%27histoire_naturelle</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Autres musées d'histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
